--- a/Distributor Medicine Lists/PULSO ITEM LIST_RAW FORMAT.xlsx
+++ b/Distributor Medicine Lists/PULSO ITEM LIST_RAW FORMAT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daaniyaal/Desktop/Medicento/Distributor Medicine Lists/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$E$74</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2906,16 +2916,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2923,7 +2933,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3275,37 +3285,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I789"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A729" workbookViewId="0">
+      <selection activeCell="D742" sqref="D742"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -3328,7 +3338,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -3354,7 +3364,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -3380,7 +3390,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -3406,7 +3416,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -3432,7 +3442,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -3458,7 +3468,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -3482,7 +3492,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -3506,7 +3516,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -3530,7 +3540,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -3554,7 +3564,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -3578,7 +3588,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -3604,7 +3614,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -3630,7 +3640,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -3656,7 +3666,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -3682,7 +3692,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -3708,7 +3718,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -3734,7 +3744,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -3760,7 +3770,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>18</v>
       </c>
@@ -3786,7 +3796,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -3812,7 +3822,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -3836,7 +3846,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -3860,7 +3870,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -3884,7 +3894,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -3908,7 +3918,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -3932,7 +3942,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>25</v>
       </c>
@@ -3958,7 +3968,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>26</v>
       </c>
@@ -3984,7 +3994,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>27</v>
       </c>
@@ -4010,7 +4020,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>28</v>
       </c>
@@ -4036,7 +4046,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>29</v>
       </c>
@@ -4062,7 +4072,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>30</v>
       </c>
@@ -4088,7 +4098,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>31</v>
       </c>
@@ -4114,7 +4124,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>32</v>
       </c>
@@ -4140,7 +4150,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>33</v>
       </c>
@@ -4164,7 +4174,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>34</v>
       </c>
@@ -4188,7 +4198,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>35</v>
       </c>
@@ -4214,7 +4224,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>36</v>
       </c>
@@ -4240,7 +4250,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>37</v>
       </c>
@@ -4266,7 +4276,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>38</v>
       </c>
@@ -4290,7 +4300,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>39</v>
       </c>
@@ -4316,7 +4326,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>40</v>
       </c>
@@ -4342,7 +4352,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>41</v>
       </c>
@@ -4368,7 +4378,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>42</v>
       </c>
@@ -4394,7 +4404,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>43</v>
       </c>
@@ -4420,7 +4430,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>44</v>
       </c>
@@ -4446,7 +4456,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>45</v>
       </c>
@@ -4472,7 +4482,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>46</v>
       </c>
@@ -4498,7 +4508,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>47</v>
       </c>
@@ -4522,7 +4532,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>48</v>
       </c>
@@ -4548,7 +4558,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>49</v>
       </c>
@@ -4574,7 +4584,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>50</v>
       </c>
@@ -4600,7 +4610,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>51</v>
       </c>
@@ -4624,7 +4634,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>52</v>
       </c>
@@ -4648,7 +4658,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>53</v>
       </c>
@@ -4672,7 +4682,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>54</v>
       </c>
@@ -4696,7 +4706,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>55</v>
       </c>
@@ -4720,7 +4730,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>56</v>
       </c>
@@ -4744,7 +4754,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>57</v>
       </c>
@@ -4768,7 +4778,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>58</v>
       </c>
@@ -4794,7 +4804,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>59</v>
       </c>
@@ -4820,7 +4830,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>60</v>
       </c>
@@ -4846,7 +4856,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>61</v>
       </c>
@@ -4872,7 +4882,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>62</v>
       </c>
@@ -4898,7 +4908,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>63</v>
       </c>
@@ -4922,7 +4932,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>64</v>
       </c>
@@ -4946,7 +4956,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>65</v>
       </c>
@@ -4970,7 +4980,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>66</v>
       </c>
@@ -4994,7 +5004,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>67</v>
       </c>
@@ -5018,7 +5028,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>68</v>
       </c>
@@ -5042,7 +5052,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>69</v>
       </c>
@@ -5068,7 +5078,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>70</v>
       </c>
@@ -5092,7 +5102,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -5116,7 +5126,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -5140,7 +5150,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2</v>
       </c>
@@ -5164,7 +5174,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>1</v>
       </c>
@@ -5188,7 +5198,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -5212,7 +5222,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -5236,7 +5246,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>4</v>
       </c>
@@ -5260,7 +5270,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>5</v>
       </c>
@@ -5284,7 +5294,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>6</v>
       </c>
@@ -5308,7 +5318,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -5334,7 +5344,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>2</v>
       </c>
@@ -5358,7 +5368,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -5382,7 +5392,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>4</v>
       </c>
@@ -5406,7 +5416,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>5</v>
       </c>
@@ -5430,7 +5440,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>6</v>
       </c>
@@ -5454,7 +5464,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>7</v>
       </c>
@@ -5478,7 +5488,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>8</v>
       </c>
@@ -5502,7 +5512,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>9</v>
       </c>
@@ -5526,7 +5536,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>10</v>
       </c>
@@ -5550,7 +5560,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>11</v>
       </c>
@@ -5574,7 +5584,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>12</v>
       </c>
@@ -5598,7 +5608,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>13</v>
       </c>
@@ -5622,7 +5632,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>14</v>
       </c>
@@ -5646,7 +5656,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>15</v>
       </c>
@@ -5670,7 +5680,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>16</v>
       </c>
@@ -5694,7 +5704,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>17</v>
       </c>
@@ -5720,7 +5730,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>18</v>
       </c>
@@ -5744,7 +5754,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>19</v>
       </c>
@@ -5768,7 +5778,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>20</v>
       </c>
@@ -5792,7 +5802,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>21</v>
       </c>
@@ -5816,7 +5826,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>22</v>
       </c>
@@ -5840,7 +5850,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>23</v>
       </c>
@@ -5864,7 +5874,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>24</v>
       </c>
@@ -5888,7 +5898,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>1</v>
       </c>
@@ -5912,7 +5922,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>2</v>
       </c>
@@ -5936,7 +5946,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>3</v>
       </c>
@@ -5960,7 +5970,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>4</v>
       </c>
@@ -5984,7 +5994,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>5</v>
       </c>
@@ -6008,7 +6018,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>6</v>
       </c>
@@ -6032,7 +6042,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>7</v>
       </c>
@@ -6056,7 +6066,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -6080,7 +6090,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>9</v>
       </c>
@@ -6104,7 +6114,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>10</v>
       </c>
@@ -6128,7 +6138,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>11</v>
       </c>
@@ -6152,7 +6162,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>12</v>
       </c>
@@ -6176,7 +6186,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>13</v>
       </c>
@@ -6200,7 +6210,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>14</v>
       </c>
@@ -6224,7 +6234,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>15</v>
       </c>
@@ -6248,7 +6258,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>16</v>
       </c>
@@ -6272,7 +6282,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>1</v>
       </c>
@@ -6296,7 +6306,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -6320,7 +6330,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>3</v>
       </c>
@@ -6344,7 +6354,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>4</v>
       </c>
@@ -6368,7 +6378,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1</v>
       </c>
@@ -6394,7 +6404,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>2</v>
       </c>
@@ -6420,7 +6430,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1</v>
       </c>
@@ -6446,7 +6456,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>2</v>
       </c>
@@ -6472,7 +6482,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>3</v>
       </c>
@@ -6498,7 +6508,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>4</v>
       </c>
@@ -6522,7 +6532,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>5</v>
       </c>
@@ -6546,7 +6556,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>6</v>
       </c>
@@ -6570,7 +6580,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>7</v>
       </c>
@@ -6596,7 +6606,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>8</v>
       </c>
@@ -6622,7 +6632,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>9</v>
       </c>
@@ -6648,7 +6658,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>10</v>
       </c>
@@ -6674,7 +6684,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>11</v>
       </c>
@@ -6698,7 +6708,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>12</v>
       </c>
@@ -6722,7 +6732,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>13</v>
       </c>
@@ -6746,7 +6756,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>14</v>
       </c>
@@ -6770,7 +6780,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>15</v>
       </c>
@@ -6794,7 +6804,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>16</v>
       </c>
@@ -6818,7 +6828,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>17</v>
       </c>
@@ -6842,7 +6852,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>18</v>
       </c>
@@ -6866,7 +6876,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>19</v>
       </c>
@@ -6892,7 +6902,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>20</v>
       </c>
@@ -6918,7 +6928,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
     </row>
-    <row r="150" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>21</v>
       </c>
@@ -6944,7 +6954,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>22</v>
       </c>
@@ -6970,7 +6980,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>23</v>
       </c>
@@ -6994,7 +7004,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>24</v>
       </c>
@@ -7020,7 +7030,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>25</v>
       </c>
@@ -7046,7 +7056,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>26</v>
       </c>
@@ -7070,7 +7080,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>27</v>
       </c>
@@ -7096,7 +7106,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>28</v>
       </c>
@@ -7122,7 +7132,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>29</v>
       </c>
@@ -7146,7 +7156,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>30</v>
       </c>
@@ -7170,7 +7180,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>31</v>
       </c>
@@ -7194,7 +7204,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>32</v>
       </c>
@@ -7218,7 +7228,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
     </row>
-    <row r="162" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>33</v>
       </c>
@@ -7244,7 +7254,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
-    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>34</v>
       </c>
@@ -7268,7 +7278,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>35</v>
       </c>
@@ -7294,7 +7304,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
-    <row r="165" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>36</v>
       </c>
@@ -7318,7 +7328,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
-    <row r="166" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>37</v>
       </c>
@@ -7342,7 +7352,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>38</v>
       </c>
@@ -7366,7 +7376,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
     </row>
-    <row r="168" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>1</v>
       </c>
@@ -7390,7 +7400,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
-    <row r="169" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2</v>
       </c>
@@ -7414,7 +7424,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
     </row>
-    <row r="170" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>3</v>
       </c>
@@ -7438,7 +7448,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>4</v>
       </c>
@@ -7462,7 +7472,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
     </row>
-    <row r="172" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>5</v>
       </c>
@@ -7486,7 +7496,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>6</v>
       </c>
@@ -7510,7 +7520,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>7</v>
       </c>
@@ -7534,7 +7544,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>8</v>
       </c>
@@ -7558,7 +7568,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>9</v>
       </c>
@@ -7582,7 +7592,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>10</v>
       </c>
@@ -7606,7 +7616,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
     </row>
-    <row r="178" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>1</v>
       </c>
@@ -7632,7 +7642,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>2</v>
       </c>
@@ -7658,7 +7668,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>3</v>
       </c>
@@ -7684,7 +7694,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>4</v>
       </c>
@@ -7710,7 +7720,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>5</v>
       </c>
@@ -7736,7 +7746,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>6</v>
       </c>
@@ -7762,7 +7772,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>7</v>
       </c>
@@ -7788,7 +7798,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>8</v>
       </c>
@@ -7814,7 +7824,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>9</v>
       </c>
@@ -7840,7 +7850,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -7866,7 +7876,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>11</v>
       </c>
@@ -7892,7 +7902,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>12</v>
       </c>
@@ -7918,7 +7928,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
     </row>
-    <row r="190" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>1</v>
       </c>
@@ -7942,7 +7952,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
     </row>
-    <row r="191" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>2</v>
       </c>
@@ -7966,7 +7976,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
     </row>
-    <row r="192" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>3</v>
       </c>
@@ -7990,7 +8000,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
     </row>
-    <row r="193" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>4</v>
       </c>
@@ -8014,7 +8024,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
     </row>
-    <row r="194" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>1</v>
       </c>
@@ -8038,7 +8048,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>2</v>
       </c>
@@ -8062,7 +8072,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
     </row>
-    <row r="196" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>3</v>
       </c>
@@ -8088,7 +8098,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>4</v>
       </c>
@@ -8114,7 +8124,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -8140,7 +8150,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>6</v>
       </c>
@@ -8164,7 +8174,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>7</v>
       </c>
@@ -8188,7 +8198,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>8</v>
       </c>
@@ -8212,7 +8222,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
     </row>
-    <row r="202" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>9</v>
       </c>
@@ -8238,7 +8248,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -8264,7 +8274,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
     </row>
-    <row r="204" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>11</v>
       </c>
@@ -8290,7 +8300,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>12</v>
       </c>
@@ -8314,7 +8324,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
     </row>
-    <row r="206" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>13</v>
       </c>
@@ -8338,7 +8348,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>14</v>
       </c>
@@ -8364,7 +8374,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
     </row>
-    <row r="208" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>15</v>
       </c>
@@ -8390,7 +8400,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
     </row>
-    <row r="209" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>16</v>
       </c>
@@ -8416,7 +8426,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
     </row>
-    <row r="210" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>17</v>
       </c>
@@ -8440,7 +8450,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
     </row>
-    <row r="211" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>18</v>
       </c>
@@ -8464,7 +8474,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
     </row>
-    <row r="212" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>19</v>
       </c>
@@ -8488,7 +8498,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
     </row>
-    <row r="213" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>20</v>
       </c>
@@ -8512,7 +8522,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
     </row>
-    <row r="214" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>21</v>
       </c>
@@ -8536,7 +8546,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
     </row>
-    <row r="215" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>22</v>
       </c>
@@ -8560,7 +8570,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
     </row>
-    <row r="216" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>23</v>
       </c>
@@ -8584,7 +8594,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>24</v>
       </c>
@@ -8610,7 +8620,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
     </row>
-    <row r="218" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>25</v>
       </c>
@@ -8636,7 +8646,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>26</v>
       </c>
@@ -8662,7 +8672,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
     </row>
-    <row r="220" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>27</v>
       </c>
@@ -8686,7 +8696,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>28</v>
       </c>
@@ -8710,7 +8720,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>29</v>
       </c>
@@ -8734,7 +8744,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>30</v>
       </c>
@@ -8758,7 +8768,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>31</v>
       </c>
@@ -8782,7 +8792,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
     </row>
-    <row r="225" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>32</v>
       </c>
@@ -8806,7 +8816,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
     </row>
-    <row r="226" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>33</v>
       </c>
@@ -8830,7 +8840,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
     </row>
-    <row r="227" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>34</v>
       </c>
@@ -8854,7 +8864,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
     </row>
-    <row r="228" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>35</v>
       </c>
@@ -8878,7 +8888,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
     </row>
-    <row r="229" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>36</v>
       </c>
@@ -8904,7 +8914,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
     </row>
-    <row r="230" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>37</v>
       </c>
@@ -8928,7 +8938,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
     </row>
-    <row r="231" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>38</v>
       </c>
@@ -8952,7 +8962,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
     </row>
-    <row r="232" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>39</v>
       </c>
@@ -8976,7 +8986,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
     </row>
-    <row r="233" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>1</v>
       </c>
@@ -9002,7 +9012,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
     </row>
-    <row r="234" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -9026,7 +9036,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>2</v>
       </c>
@@ -9050,7 +9060,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
     </row>
-    <row r="236" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>3</v>
       </c>
@@ -9074,7 +9084,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
     </row>
-    <row r="237" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>4</v>
       </c>
@@ -9098,7 +9108,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
     </row>
-    <row r="238" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>5</v>
       </c>
@@ -9122,7 +9132,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
     </row>
-    <row r="239" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>6</v>
       </c>
@@ -9146,7 +9156,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>7</v>
       </c>
@@ -9170,7 +9180,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
     </row>
-    <row r="241" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>8</v>
       </c>
@@ -9194,7 +9204,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
     </row>
-    <row r="242" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>9</v>
       </c>
@@ -9218,7 +9228,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>10</v>
       </c>
@@ -9242,7 +9252,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
     </row>
-    <row r="244" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>11</v>
       </c>
@@ -9268,7 +9278,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
     </row>
-    <row r="245" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>12</v>
       </c>
@@ -9294,7 +9304,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
     </row>
-    <row r="246" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>13</v>
       </c>
@@ -9318,7 +9328,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
     </row>
-    <row r="247" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>14</v>
       </c>
@@ -9342,7 +9352,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
     </row>
-    <row r="248" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>15</v>
       </c>
@@ -9366,7 +9376,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
     </row>
-    <row r="249" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>16</v>
       </c>
@@ -9390,7 +9400,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
     </row>
-    <row r="250" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>17</v>
       </c>
@@ -9414,7 +9424,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
     </row>
-    <row r="251" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>18</v>
       </c>
@@ -9438,7 +9448,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
     </row>
-    <row r="252" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>19</v>
       </c>
@@ -9462,7 +9472,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
     </row>
-    <row r="253" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>20</v>
       </c>
@@ -9486,7 +9496,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
     </row>
-    <row r="254" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>21</v>
       </c>
@@ -9508,7 +9518,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
     </row>
-    <row r="255" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>22</v>
       </c>
@@ -9530,7 +9540,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
     </row>
-    <row r="256" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>23</v>
       </c>
@@ -9554,7 +9564,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
     </row>
-    <row r="257" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>24</v>
       </c>
@@ -9576,7 +9586,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
     </row>
-    <row r="258" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>25</v>
       </c>
@@ -9598,7 +9608,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
     </row>
-    <row r="259" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>26</v>
       </c>
@@ -9622,7 +9632,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
     </row>
-    <row r="260" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>27</v>
       </c>
@@ -9646,7 +9656,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
     </row>
-    <row r="261" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>1</v>
       </c>
@@ -9670,7 +9680,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
     </row>
-    <row r="262" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>2</v>
       </c>
@@ -9694,7 +9704,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
     </row>
-    <row r="263" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>3</v>
       </c>
@@ -9718,7 +9728,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
     </row>
-    <row r="264" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>4</v>
       </c>
@@ -9742,7 +9752,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
     </row>
-    <row r="265" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>5</v>
       </c>
@@ -9766,7 +9776,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
     </row>
-    <row r="266" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>6</v>
       </c>
@@ -9790,7 +9800,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>7</v>
       </c>
@@ -9814,7 +9824,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
     </row>
-    <row r="268" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>8</v>
       </c>
@@ -9838,7 +9848,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
     </row>
-    <row r="269" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>9</v>
       </c>
@@ -9864,7 +9874,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
     </row>
-    <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>10</v>
       </c>
@@ -9888,7 +9898,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
     </row>
-    <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>11</v>
       </c>
@@ -9912,7 +9922,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
     </row>
-    <row r="272" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>12</v>
       </c>
@@ -9936,7 +9946,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
     </row>
-    <row r="273" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>13</v>
       </c>
@@ -9960,7 +9970,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
     </row>
-    <row r="274" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>14</v>
       </c>
@@ -9984,7 +9994,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
     </row>
-    <row r="275" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>15</v>
       </c>
@@ -10008,7 +10018,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
     </row>
-    <row r="276" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>1</v>
       </c>
@@ -10032,7 +10042,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
     </row>
-    <row r="277" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>2</v>
       </c>
@@ -10056,7 +10066,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
     </row>
-    <row r="278" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>1</v>
       </c>
@@ -10080,7 +10090,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
     </row>
-    <row r="279" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>2</v>
       </c>
@@ -10104,7 +10114,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
     </row>
-    <row r="280" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>3</v>
       </c>
@@ -10128,7 +10138,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
     </row>
-    <row r="281" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>4</v>
       </c>
@@ -10152,7 +10162,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
     </row>
-    <row r="282" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>5</v>
       </c>
@@ -10176,7 +10186,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
     </row>
-    <row r="283" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>1</v>
       </c>
@@ -10202,7 +10212,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
     </row>
-    <row r="284" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>2</v>
       </c>
@@ -10228,7 +10238,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
     </row>
-    <row r="285" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>3</v>
       </c>
@@ -10254,7 +10264,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
     </row>
-    <row r="286" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>4</v>
       </c>
@@ -10280,7 +10290,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
     </row>
-    <row r="287" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>5</v>
       </c>
@@ -10306,7 +10316,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
     </row>
-    <row r="288" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>6</v>
       </c>
@@ -10332,7 +10342,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
     </row>
-    <row r="289" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>7</v>
       </c>
@@ -10356,7 +10366,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
     </row>
-    <row r="290" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>8</v>
       </c>
@@ -10380,7 +10390,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
     </row>
-    <row r="291" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>9</v>
       </c>
@@ -10406,7 +10416,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
     </row>
-    <row r="292" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>10</v>
       </c>
@@ -10430,7 +10440,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
     </row>
-    <row r="293" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>11</v>
       </c>
@@ -10454,7 +10464,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
     </row>
-    <row r="294" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>12</v>
       </c>
@@ -10480,7 +10490,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
     </row>
-    <row r="295" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>13</v>
       </c>
@@ -10506,7 +10516,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
     </row>
-    <row r="296" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>1</v>
       </c>
@@ -10530,7 +10540,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
     </row>
-    <row r="297" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>2</v>
       </c>
@@ -10554,7 +10564,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
     </row>
-    <row r="298" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>3</v>
       </c>
@@ -10578,7 +10588,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
     </row>
-    <row r="299" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>4</v>
       </c>
@@ -10602,7 +10612,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
     </row>
-    <row r="300" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>5</v>
       </c>
@@ -10626,7 +10636,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
     </row>
-    <row r="301" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>6</v>
       </c>
@@ -10650,7 +10660,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
     </row>
-    <row r="302" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>7</v>
       </c>
@@ -10674,7 +10684,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
     </row>
-    <row r="303" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>1</v>
       </c>
@@ -10698,7 +10708,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
     </row>
-    <row r="304" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>2</v>
       </c>
@@ -10722,7 +10732,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
     </row>
-    <row r="305" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>3</v>
       </c>
@@ -10746,7 +10756,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
     </row>
-    <row r="306" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>4</v>
       </c>
@@ -10770,7 +10780,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
     </row>
-    <row r="307" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>5</v>
       </c>
@@ -10794,7 +10804,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
     </row>
-    <row r="308" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>6</v>
       </c>
@@ -10818,7 +10828,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
     </row>
-    <row r="309" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>7</v>
       </c>
@@ -10842,7 +10852,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
     </row>
-    <row r="310" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>8</v>
       </c>
@@ -10866,7 +10876,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
     </row>
-    <row r="311" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>1</v>
       </c>
@@ -10892,7 +10902,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
     </row>
-    <row r="312" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>2</v>
       </c>
@@ -10918,7 +10928,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
     </row>
-    <row r="313" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>3</v>
       </c>
@@ -10944,7 +10954,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
     </row>
-    <row r="314" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>4</v>
       </c>
@@ -10970,7 +10980,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>5</v>
       </c>
@@ -10994,7 +11004,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
     </row>
-    <row r="316" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>6</v>
       </c>
@@ -11020,7 +11030,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
     </row>
-    <row r="317" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>7</v>
       </c>
@@ -11046,7 +11056,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
     </row>
-    <row r="318" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>8</v>
       </c>
@@ -11072,7 +11082,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
     </row>
-    <row r="319" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>9</v>
       </c>
@@ -11098,7 +11108,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
     </row>
-    <row r="320" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>10</v>
       </c>
@@ -11124,7 +11134,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
     </row>
-    <row r="321" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>11</v>
       </c>
@@ -11150,7 +11160,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
     </row>
-    <row r="322" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>12</v>
       </c>
@@ -11174,7 +11184,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
     </row>
-    <row r="323" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>13</v>
       </c>
@@ -11198,7 +11208,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
     </row>
-    <row r="324" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>14</v>
       </c>
@@ -11224,7 +11234,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
     </row>
-    <row r="325" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>15</v>
       </c>
@@ -11250,7 +11260,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
     </row>
-    <row r="326" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>16</v>
       </c>
@@ -11274,7 +11284,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
     </row>
-    <row r="327" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>17</v>
       </c>
@@ -11300,7 +11310,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
     </row>
-    <row r="328" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>18</v>
       </c>
@@ -11326,7 +11336,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
     </row>
-    <row r="329" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>19</v>
       </c>
@@ -11352,7 +11362,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
     </row>
-    <row r="330" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>1</v>
       </c>
@@ -11378,7 +11388,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
     </row>
-    <row r="331" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>2</v>
       </c>
@@ -11404,7 +11414,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
     </row>
-    <row r="332" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>3</v>
       </c>
@@ -11430,7 +11440,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
     </row>
-    <row r="333" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>4</v>
       </c>
@@ -11456,7 +11466,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
     </row>
-    <row r="334" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>5</v>
       </c>
@@ -11482,7 +11492,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
     </row>
-    <row r="335" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>6</v>
       </c>
@@ -11508,7 +11518,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
     </row>
-    <row r="336" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>7</v>
       </c>
@@ -11534,7 +11544,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>8</v>
       </c>
@@ -11558,7 +11568,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
     </row>
-    <row r="338" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>9</v>
       </c>
@@ -11584,7 +11594,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
     </row>
-    <row r="339" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>1</v>
       </c>
@@ -11608,7 +11618,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
     </row>
-    <row r="340" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>2</v>
       </c>
@@ -11634,7 +11644,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
     </row>
-    <row r="341" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>3</v>
       </c>
@@ -11660,7 +11670,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
     </row>
-    <row r="342" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>4</v>
       </c>
@@ -11684,7 +11694,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
     </row>
-    <row r="343" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>5</v>
       </c>
@@ -11708,7 +11718,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
     </row>
-    <row r="344" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>6</v>
       </c>
@@ -11732,7 +11742,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
     </row>
-    <row r="345" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>7</v>
       </c>
@@ -11756,7 +11766,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
     </row>
-    <row r="346" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>8</v>
       </c>
@@ -11782,7 +11792,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
     </row>
-    <row r="347" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>9</v>
       </c>
@@ -11806,7 +11816,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
     </row>
-    <row r="348" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>1</v>
       </c>
@@ -11830,7 +11840,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
     </row>
-    <row r="349" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>2</v>
       </c>
@@ -11854,7 +11864,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
     </row>
-    <row r="350" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>3</v>
       </c>
@@ -11878,7 +11888,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
     </row>
-    <row r="351" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>4</v>
       </c>
@@ -11902,7 +11912,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
     </row>
-    <row r="352" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>5</v>
       </c>
@@ -11926,7 +11936,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
     </row>
-    <row r="353" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>6</v>
       </c>
@@ -11950,7 +11960,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
     </row>
-    <row r="354" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>7</v>
       </c>
@@ -11974,7 +11984,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
     </row>
-    <row r="355" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>8</v>
       </c>
@@ -11998,7 +12008,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
     </row>
-    <row r="356" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>9</v>
       </c>
@@ -12022,7 +12032,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
     </row>
-    <row r="357" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>10</v>
       </c>
@@ -12046,7 +12056,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
     </row>
-    <row r="358" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>11</v>
       </c>
@@ -12070,7 +12080,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
     </row>
-    <row r="359" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>12</v>
       </c>
@@ -12094,7 +12104,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
     </row>
-    <row r="360" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>13</v>
       </c>
@@ -12118,7 +12128,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
     </row>
-    <row r="361" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>14</v>
       </c>
@@ -12142,7 +12152,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
     </row>
-    <row r="362" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>15</v>
       </c>
@@ -12168,7 +12178,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
     </row>
-    <row r="363" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>16</v>
       </c>
@@ -12192,7 +12202,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
     </row>
-    <row r="364" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>17</v>
       </c>
@@ -12216,7 +12226,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
     </row>
-    <row r="365" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>18</v>
       </c>
@@ -12240,7 +12250,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
     </row>
-    <row r="366" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>19</v>
       </c>
@@ -12264,7 +12274,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
     </row>
-    <row r="367" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>20</v>
       </c>
@@ -12288,7 +12298,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
     </row>
-    <row r="368" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>21</v>
       </c>
@@ -12312,7 +12322,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
     </row>
-    <row r="369" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>22</v>
       </c>
@@ -12336,7 +12346,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
     </row>
-    <row r="370" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>23</v>
       </c>
@@ -12360,7 +12370,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
     </row>
-    <row r="371" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>24</v>
       </c>
@@ -12384,7 +12394,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
     </row>
-    <row r="372" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>25</v>
       </c>
@@ -12408,7 +12418,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
     </row>
-    <row r="373" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>26</v>
       </c>
@@ -12432,7 +12442,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
     </row>
-    <row r="374" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>27</v>
       </c>
@@ -12456,7 +12466,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
     </row>
-    <row r="375" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>28</v>
       </c>
@@ -12480,7 +12490,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
     </row>
-    <row r="376" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>1</v>
       </c>
@@ -12504,7 +12514,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
     </row>
-    <row r="377" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>1</v>
       </c>
@@ -12528,7 +12538,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
     </row>
-    <row r="378" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>2</v>
       </c>
@@ -12552,7 +12562,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
     </row>
-    <row r="379" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>3</v>
       </c>
@@ -12576,7 +12586,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
     </row>
-    <row r="380" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>4</v>
       </c>
@@ -12600,7 +12610,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
     </row>
-    <row r="381" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>5</v>
       </c>
@@ -12624,7 +12634,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
     </row>
-    <row r="382" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>6</v>
       </c>
@@ -12648,7 +12658,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
     </row>
-    <row r="383" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>7</v>
       </c>
@@ -12672,7 +12682,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
     </row>
-    <row r="384" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>1</v>
       </c>
@@ -12696,7 +12706,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
     </row>
-    <row r="385" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>2</v>
       </c>
@@ -12720,7 +12730,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
     </row>
-    <row r="386" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>3</v>
       </c>
@@ -12744,7 +12754,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
     </row>
-    <row r="387" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>4</v>
       </c>
@@ -12768,7 +12778,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
     </row>
-    <row r="388" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>5</v>
       </c>
@@ -12792,7 +12802,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
     </row>
-    <row r="389" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>6</v>
       </c>
@@ -12816,7 +12826,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
     </row>
-    <row r="390" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>7</v>
       </c>
@@ -12840,7 +12850,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
     </row>
-    <row r="391" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>8</v>
       </c>
@@ -12864,7 +12874,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
     </row>
-    <row r="392" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>9</v>
       </c>
@@ -12888,7 +12898,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
     </row>
-    <row r="393" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>10</v>
       </c>
@@ -12912,7 +12922,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
     </row>
-    <row r="394" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>11</v>
       </c>
@@ -12936,7 +12946,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
     </row>
-    <row r="395" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>1</v>
       </c>
@@ -12962,7 +12972,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
     </row>
-    <row r="396" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>2</v>
       </c>
@@ -12986,7 +12996,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
     </row>
-    <row r="397" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>1</v>
       </c>
@@ -13010,7 +13020,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
     </row>
-    <row r="398" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>2</v>
       </c>
@@ -13034,7 +13044,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
     </row>
-    <row r="399" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>3</v>
       </c>
@@ -13058,7 +13068,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
     </row>
-    <row r="400" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>4</v>
       </c>
@@ -13082,7 +13092,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
     </row>
-    <row r="401" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>5</v>
       </c>
@@ -13106,7 +13116,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
     </row>
-    <row r="402" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>6</v>
       </c>
@@ -13130,7 +13140,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
     </row>
-    <row r="403" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>7</v>
       </c>
@@ -13154,7 +13164,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
     </row>
-    <row r="404" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>8</v>
       </c>
@@ -13178,7 +13188,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
     </row>
-    <row r="405" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>9</v>
       </c>
@@ -13202,7 +13212,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
     </row>
-    <row r="406" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>10</v>
       </c>
@@ -13226,7 +13236,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
     </row>
-    <row r="407" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>11</v>
       </c>
@@ -13250,7 +13260,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
     </row>
-    <row r="408" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>12</v>
       </c>
@@ -13274,7 +13284,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
     </row>
-    <row r="409" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>13</v>
       </c>
@@ -13298,7 +13308,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
     </row>
-    <row r="410" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>14</v>
       </c>
@@ -13322,7 +13332,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
     </row>
-    <row r="411" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>15</v>
       </c>
@@ -13346,7 +13356,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
     </row>
-    <row r="412" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>16</v>
       </c>
@@ -13370,7 +13380,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
     </row>
-    <row r="413" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>17</v>
       </c>
@@ -13394,7 +13404,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
     </row>
-    <row r="414" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>18</v>
       </c>
@@ -13418,7 +13428,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
     </row>
-    <row r="415" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>19</v>
       </c>
@@ -13442,7 +13452,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
     </row>
-    <row r="416" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>20</v>
       </c>
@@ -13466,7 +13476,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
     </row>
-    <row r="417" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>21</v>
       </c>
@@ -13490,7 +13500,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
     </row>
-    <row r="418" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>22</v>
       </c>
@@ -13514,7 +13524,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
     </row>
-    <row r="419" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>23</v>
       </c>
@@ -13538,7 +13548,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
     </row>
-    <row r="420" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>24</v>
       </c>
@@ -13562,7 +13572,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
     </row>
-    <row r="421" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>25</v>
       </c>
@@ -13586,7 +13596,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
     </row>
-    <row r="422" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>26</v>
       </c>
@@ -13610,7 +13620,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
     </row>
-    <row r="423" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>27</v>
       </c>
@@ -13634,7 +13644,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
     </row>
-    <row r="424" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>28</v>
       </c>
@@ -13658,7 +13668,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
     </row>
-    <row r="425" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>29</v>
       </c>
@@ -13682,7 +13692,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
     </row>
-    <row r="426" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>30</v>
       </c>
@@ -13706,7 +13716,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
     </row>
-    <row r="427" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>31</v>
       </c>
@@ -13730,7 +13740,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
     </row>
-    <row r="428" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>32</v>
       </c>
@@ -13756,7 +13766,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
     </row>
-    <row r="429" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>33</v>
       </c>
@@ -13780,7 +13790,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
     </row>
-    <row r="430" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>34</v>
       </c>
@@ -13804,7 +13814,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
     </row>
-    <row r="431" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>35</v>
       </c>
@@ -13828,7 +13838,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
     </row>
-    <row r="432" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>36</v>
       </c>
@@ -13852,7 +13862,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
     </row>
-    <row r="433" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>37</v>
       </c>
@@ -13876,7 +13886,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
     </row>
-    <row r="434" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>38</v>
       </c>
@@ -13900,7 +13910,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
     </row>
-    <row r="435" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>39</v>
       </c>
@@ -13924,7 +13934,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
     </row>
-    <row r="436" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>40</v>
       </c>
@@ -13948,7 +13958,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
     </row>
-    <row r="437" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>41</v>
       </c>
@@ -13972,7 +13982,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
     </row>
-    <row r="438" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>1</v>
       </c>
@@ -13998,7 +14008,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
     </row>
-    <row r="439" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>2</v>
       </c>
@@ -14024,7 +14034,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
     </row>
-    <row r="440" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>3</v>
       </c>
@@ -14050,7 +14060,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
     </row>
-    <row r="441" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>4</v>
       </c>
@@ -14074,7 +14084,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
     </row>
-    <row r="442" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>5</v>
       </c>
@@ -14098,7 +14108,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
     </row>
-    <row r="443" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>1</v>
       </c>
@@ -14122,7 +14132,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
     </row>
-    <row r="444" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>2</v>
       </c>
@@ -14146,7 +14156,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
     </row>
-    <row r="445" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>3</v>
       </c>
@@ -14170,7 +14180,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
     </row>
-    <row r="446" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>4</v>
       </c>
@@ -14194,7 +14204,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
     </row>
-    <row r="447" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>1</v>
       </c>
@@ -14218,7 +14228,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
     </row>
-    <row r="448" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>2</v>
       </c>
@@ -14242,7 +14252,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
     </row>
-    <row r="449" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>3</v>
       </c>
@@ -14266,7 +14276,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
     </row>
-    <row r="450" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>4</v>
       </c>
@@ -14290,7 +14300,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
     </row>
-    <row r="451" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>5</v>
       </c>
@@ -14314,7 +14324,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
     </row>
-    <row r="452" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>6</v>
       </c>
@@ -14338,7 +14348,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
     </row>
-    <row r="453" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>7</v>
       </c>
@@ -14362,7 +14372,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
     </row>
-    <row r="454" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>8</v>
       </c>
@@ -14386,7 +14396,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
     </row>
-    <row r="455" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>9</v>
       </c>
@@ -14410,7 +14420,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
     </row>
-    <row r="456" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>10</v>
       </c>
@@ -14434,7 +14444,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
     </row>
-    <row r="457" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>11</v>
       </c>
@@ -14458,7 +14468,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
     </row>
-    <row r="458" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>12</v>
       </c>
@@ -14482,7 +14492,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
     </row>
-    <row r="459" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>13</v>
       </c>
@@ -14506,7 +14516,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
     </row>
-    <row r="460" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>14</v>
       </c>
@@ -14530,7 +14540,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
     </row>
-    <row r="461" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>15</v>
       </c>
@@ -14554,7 +14564,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
     </row>
-    <row r="462" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>16</v>
       </c>
@@ -14578,7 +14588,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
     </row>
-    <row r="463" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>17</v>
       </c>
@@ -14602,7 +14612,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
     </row>
-    <row r="464" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>18</v>
       </c>
@@ -14626,7 +14636,7 @@
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
     </row>
-    <row r="465" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>19</v>
       </c>
@@ -14650,7 +14660,7 @@
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
     </row>
-    <row r="466" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>20</v>
       </c>
@@ -14674,7 +14684,7 @@
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
     </row>
-    <row r="467" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>21</v>
       </c>
@@ -14698,7 +14708,7 @@
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
     </row>
-    <row r="468" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>22</v>
       </c>
@@ -14722,7 +14732,7 @@
       <c r="H468" s="3"/>
       <c r="I468" s="3"/>
     </row>
-    <row r="469" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>23</v>
       </c>
@@ -14746,7 +14756,7 @@
       <c r="H469" s="3"/>
       <c r="I469" s="3"/>
     </row>
-    <row r="470" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>24</v>
       </c>
@@ -14770,7 +14780,7 @@
       <c r="H470" s="3"/>
       <c r="I470" s="3"/>
     </row>
-    <row r="471" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>25</v>
       </c>
@@ -14794,7 +14804,7 @@
       <c r="H471" s="3"/>
       <c r="I471" s="3"/>
     </row>
-    <row r="472" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>26</v>
       </c>
@@ -14818,7 +14828,7 @@
       <c r="H472" s="3"/>
       <c r="I472" s="3"/>
     </row>
-    <row r="473" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>27</v>
       </c>
@@ -14842,7 +14852,7 @@
       <c r="H473" s="3"/>
       <c r="I473" s="3"/>
     </row>
-    <row r="474" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>1</v>
       </c>
@@ -14866,7 +14876,7 @@
       <c r="H474" s="3"/>
       <c r="I474" s="3"/>
     </row>
-    <row r="475" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>2</v>
       </c>
@@ -14890,7 +14900,7 @@
       <c r="H475" s="3"/>
       <c r="I475" s="3"/>
     </row>
-    <row r="476" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>3</v>
       </c>
@@ -14914,7 +14924,7 @@
       <c r="H476" s="3"/>
       <c r="I476" s="3"/>
     </row>
-    <row r="477" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>4</v>
       </c>
@@ -14938,7 +14948,7 @@
       <c r="H477" s="3"/>
       <c r="I477" s="3"/>
     </row>
-    <row r="478" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>5</v>
       </c>
@@ -14962,7 +14972,7 @@
       <c r="H478" s="3"/>
       <c r="I478" s="3"/>
     </row>
-    <row r="479" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>6</v>
       </c>
@@ -14986,7 +14996,7 @@
       <c r="H479" s="3"/>
       <c r="I479" s="3"/>
     </row>
-    <row r="480" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>7</v>
       </c>
@@ -15010,7 +15020,7 @@
       <c r="H480" s="3"/>
       <c r="I480" s="3"/>
     </row>
-    <row r="481" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>8</v>
       </c>
@@ -15034,7 +15044,7 @@
       <c r="H481" s="3"/>
       <c r="I481" s="3"/>
     </row>
-    <row r="482" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>9</v>
       </c>
@@ -15058,7 +15068,7 @@
       <c r="H482" s="3"/>
       <c r="I482" s="3"/>
     </row>
-    <row r="483" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>10</v>
       </c>
@@ -15082,7 +15092,7 @@
       <c r="H483" s="3"/>
       <c r="I483" s="3"/>
     </row>
-    <row r="484" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>11</v>
       </c>
@@ -15106,7 +15116,7 @@
       <c r="H484" s="3"/>
       <c r="I484" s="3"/>
     </row>
-    <row r="485" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>12</v>
       </c>
@@ -15130,7 +15140,7 @@
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
     </row>
-    <row r="486" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>13</v>
       </c>
@@ -15154,7 +15164,7 @@
       <c r="H486" s="3"/>
       <c r="I486" s="3"/>
     </row>
-    <row r="487" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>14</v>
       </c>
@@ -15178,7 +15188,7 @@
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
     </row>
-    <row r="488" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>15</v>
       </c>
@@ -15202,7 +15212,7 @@
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
     </row>
-    <row r="489" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>16</v>
       </c>
@@ -15226,7 +15236,7 @@
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
     </row>
-    <row r="490" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>17</v>
       </c>
@@ -15250,7 +15260,7 @@
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
     </row>
-    <row r="491" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>18</v>
       </c>
@@ -15274,7 +15284,7 @@
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
     </row>
-    <row r="492" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>19</v>
       </c>
@@ -15298,7 +15308,7 @@
       <c r="H492" s="3"/>
       <c r="I492" s="3"/>
     </row>
-    <row r="493" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>20</v>
       </c>
@@ -15322,7 +15332,7 @@
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
     </row>
-    <row r="494" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>21</v>
       </c>
@@ -15346,7 +15356,7 @@
       <c r="H494" s="3"/>
       <c r="I494" s="3"/>
     </row>
-    <row r="495" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>22</v>
       </c>
@@ -15370,7 +15380,7 @@
       <c r="H495" s="3"/>
       <c r="I495" s="3"/>
     </row>
-    <row r="496" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>23</v>
       </c>
@@ -15394,7 +15404,7 @@
       <c r="H496" s="3"/>
       <c r="I496" s="3"/>
     </row>
-    <row r="497" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>24</v>
       </c>
@@ -15418,7 +15428,7 @@
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
     </row>
-    <row r="498" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>25</v>
       </c>
@@ -15442,7 +15452,7 @@
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
     </row>
-    <row r="499" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>26</v>
       </c>
@@ -15466,7 +15476,7 @@
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
     </row>
-    <row r="500" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>27</v>
       </c>
@@ -15490,7 +15500,7 @@
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
     </row>
-    <row r="501" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>28</v>
       </c>
@@ -15514,7 +15524,7 @@
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
     </row>
-    <row r="502" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>29</v>
       </c>
@@ -15538,7 +15548,7 @@
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
     </row>
-    <row r="503" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>30</v>
       </c>
@@ -15562,7 +15572,7 @@
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
     </row>
-    <row r="504" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
         <v>31</v>
       </c>
@@ -15586,7 +15596,7 @@
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
     </row>
-    <row r="505" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A505" s="4">
         <v>32</v>
       </c>
@@ -15610,7 +15620,7 @@
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
     </row>
-    <row r="506" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A506" s="4">
         <v>33</v>
       </c>
@@ -15634,7 +15644,7 @@
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
     </row>
-    <row r="507" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
         <v>34</v>
       </c>
@@ -15658,7 +15668,7 @@
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
     </row>
-    <row r="508" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
         <v>35</v>
       </c>
@@ -15682,7 +15692,7 @@
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
     </row>
-    <row r="509" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
         <v>36</v>
       </c>
@@ -15706,7 +15716,7 @@
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
     </row>
-    <row r="510" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
         <v>37</v>
       </c>
@@ -15730,7 +15740,7 @@
       <c r="H510" s="3"/>
       <c r="I510" s="3"/>
     </row>
-    <row r="511" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
         <v>38</v>
       </c>
@@ -15754,7 +15764,7 @@
       <c r="H511" s="3"/>
       <c r="I511" s="3"/>
     </row>
-    <row r="512" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>39</v>
       </c>
@@ -15778,7 +15788,7 @@
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
     </row>
-    <row r="513" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>40</v>
       </c>
@@ -15802,7 +15812,7 @@
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
     </row>
-    <row r="514" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>41</v>
       </c>
@@ -15826,7 +15836,7 @@
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
     </row>
-    <row r="515" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
         <v>42</v>
       </c>
@@ -15850,7 +15860,7 @@
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
     </row>
-    <row r="516" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
         <v>43</v>
       </c>
@@ -15876,7 +15886,7 @@
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
     </row>
-    <row r="517" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>44</v>
       </c>
@@ -15900,7 +15910,7 @@
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
     </row>
-    <row r="518" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>45</v>
       </c>
@@ -15924,7 +15934,7 @@
       <c r="H518" s="3"/>
       <c r="I518" s="3"/>
     </row>
-    <row r="519" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>46</v>
       </c>
@@ -15950,7 +15960,7 @@
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
     </row>
-    <row r="520" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>47</v>
       </c>
@@ -15976,7 +15986,7 @@
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
     </row>
-    <row r="521" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>48</v>
       </c>
@@ -16002,7 +16012,7 @@
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
     </row>
-    <row r="522" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>49</v>
       </c>
@@ -16028,7 +16038,7 @@
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
     </row>
-    <row r="523" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>50</v>
       </c>
@@ -16052,7 +16062,7 @@
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
     </row>
-    <row r="524" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>51</v>
       </c>
@@ -16076,7 +16086,7 @@
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
     </row>
-    <row r="525" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>52</v>
       </c>
@@ -16100,7 +16110,7 @@
       <c r="H525" s="3"/>
       <c r="I525" s="3"/>
     </row>
-    <row r="526" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>53</v>
       </c>
@@ -16124,7 +16134,7 @@
       <c r="H526" s="3"/>
       <c r="I526" s="3"/>
     </row>
-    <row r="527" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>54</v>
       </c>
@@ -16148,7 +16158,7 @@
       <c r="H527" s="3"/>
       <c r="I527" s="3"/>
     </row>
-    <row r="528" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>55</v>
       </c>
@@ -16172,7 +16182,7 @@
       <c r="H528" s="3"/>
       <c r="I528" s="3"/>
     </row>
-    <row r="529" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>56</v>
       </c>
@@ -16196,7 +16206,7 @@
       <c r="H529" s="3"/>
       <c r="I529" s="3"/>
     </row>
-    <row r="530" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>57</v>
       </c>
@@ -16220,7 +16230,7 @@
       <c r="H530" s="3"/>
       <c r="I530" s="3"/>
     </row>
-    <row r="531" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>58</v>
       </c>
@@ -16244,7 +16254,7 @@
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
     </row>
-    <row r="532" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>59</v>
       </c>
@@ -16268,7 +16278,7 @@
       <c r="H532" s="3"/>
       <c r="I532" s="3"/>
     </row>
-    <row r="533" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>60</v>
       </c>
@@ -16292,7 +16302,7 @@
       <c r="H533" s="3"/>
       <c r="I533" s="3"/>
     </row>
-    <row r="534" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>61</v>
       </c>
@@ -16318,7 +16328,7 @@
       <c r="H534" s="3"/>
       <c r="I534" s="3"/>
     </row>
-    <row r="535" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>62</v>
       </c>
@@ -16342,7 +16352,7 @@
       <c r="H535" s="3"/>
       <c r="I535" s="3"/>
     </row>
-    <row r="536" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>63</v>
       </c>
@@ -16366,7 +16376,7 @@
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
     </row>
-    <row r="537" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>64</v>
       </c>
@@ -16390,7 +16400,7 @@
       <c r="H537" s="3"/>
       <c r="I537" s="3"/>
     </row>
-    <row r="538" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>65</v>
       </c>
@@ -16416,7 +16426,7 @@
       <c r="H538" s="3"/>
       <c r="I538" s="3"/>
     </row>
-    <row r="539" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>66</v>
       </c>
@@ -16440,7 +16450,7 @@
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
     </row>
-    <row r="540" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <v>67</v>
       </c>
@@ -16464,7 +16474,7 @@
       <c r="H540" s="3"/>
       <c r="I540" s="3"/>
     </row>
-    <row r="541" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>68</v>
       </c>
@@ -16488,7 +16498,7 @@
       <c r="H541" s="3"/>
       <c r="I541" s="3"/>
     </row>
-    <row r="542" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>69</v>
       </c>
@@ -16512,7 +16522,7 @@
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
     </row>
-    <row r="543" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>70</v>
       </c>
@@ -16536,7 +16546,7 @@
       <c r="H543" s="3"/>
       <c r="I543" s="3"/>
     </row>
-    <row r="544" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>71</v>
       </c>
@@ -16560,7 +16570,7 @@
       <c r="H544" s="3"/>
       <c r="I544" s="3"/>
     </row>
-    <row r="545" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>72</v>
       </c>
@@ -16584,7 +16594,7 @@
       <c r="H545" s="3"/>
       <c r="I545" s="3"/>
     </row>
-    <row r="546" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>73</v>
       </c>
@@ -16608,7 +16618,7 @@
       <c r="H546" s="3"/>
       <c r="I546" s="3"/>
     </row>
-    <row r="547" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>74</v>
       </c>
@@ -16632,7 +16642,7 @@
       <c r="H547" s="3"/>
       <c r="I547" s="3"/>
     </row>
-    <row r="548" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>75</v>
       </c>
@@ -16656,7 +16666,7 @@
       <c r="H548" s="3"/>
       <c r="I548" s="3"/>
     </row>
-    <row r="549" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>76</v>
       </c>
@@ -16680,7 +16690,7 @@
       <c r="H549" s="3"/>
       <c r="I549" s="3"/>
     </row>
-    <row r="550" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>77</v>
       </c>
@@ -16704,7 +16714,7 @@
       <c r="H550" s="3"/>
       <c r="I550" s="3"/>
     </row>
-    <row r="551" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>78</v>
       </c>
@@ -16728,7 +16738,7 @@
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
     </row>
-    <row r="552" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>79</v>
       </c>
@@ -16752,7 +16762,7 @@
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
     </row>
-    <row r="553" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>80</v>
       </c>
@@ -16776,7 +16786,7 @@
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
     </row>
-    <row r="554" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>81</v>
       </c>
@@ -16800,7 +16810,7 @@
       <c r="H554" s="3"/>
       <c r="I554" s="3"/>
     </row>
-    <row r="555" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>82</v>
       </c>
@@ -16824,7 +16834,7 @@
       <c r="H555" s="3"/>
       <c r="I555" s="3"/>
     </row>
-    <row r="556" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
         <v>83</v>
       </c>
@@ -16848,7 +16858,7 @@
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
     </row>
-    <row r="557" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>84</v>
       </c>
@@ -16872,7 +16882,7 @@
       <c r="H557" s="3"/>
       <c r="I557" s="3"/>
     </row>
-    <row r="558" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>85</v>
       </c>
@@ -16896,7 +16906,7 @@
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
     </row>
-    <row r="559" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>86</v>
       </c>
@@ -16920,7 +16930,7 @@
       <c r="H559" s="3"/>
       <c r="I559" s="3"/>
     </row>
-    <row r="560" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>87</v>
       </c>
@@ -16944,7 +16954,7 @@
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
     </row>
-    <row r="561" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>88</v>
       </c>
@@ -16968,7 +16978,7 @@
       <c r="H561" s="3"/>
       <c r="I561" s="3"/>
     </row>
-    <row r="562" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>89</v>
       </c>
@@ -16992,7 +17002,7 @@
       <c r="H562" s="3"/>
       <c r="I562" s="3"/>
     </row>
-    <row r="563" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>90</v>
       </c>
@@ -17016,7 +17026,7 @@
       <c r="H563" s="3"/>
       <c r="I563" s="3"/>
     </row>
-    <row r="564" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>91</v>
       </c>
@@ -17040,7 +17050,7 @@
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
     </row>
-    <row r="565" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A565" s="4">
         <v>92</v>
       </c>
@@ -17064,7 +17074,7 @@
       <c r="H565" s="3"/>
       <c r="I565" s="3"/>
     </row>
-    <row r="566" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A566" s="4">
         <v>93</v>
       </c>
@@ -17088,7 +17098,7 @@
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
     </row>
-    <row r="567" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
         <v>94</v>
       </c>
@@ -17112,7 +17122,7 @@
       <c r="H567" s="3"/>
       <c r="I567" s="3"/>
     </row>
-    <row r="568" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
         <v>95</v>
       </c>
@@ -17136,7 +17146,7 @@
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
     </row>
-    <row r="569" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
         <v>96</v>
       </c>
@@ -17160,7 +17170,7 @@
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
     </row>
-    <row r="570" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <v>97</v>
       </c>
@@ -17184,7 +17194,7 @@
       <c r="H570" s="3"/>
       <c r="I570" s="3"/>
     </row>
-    <row r="571" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
         <v>98</v>
       </c>
@@ -17208,7 +17218,7 @@
       <c r="H571" s="3"/>
       <c r="I571" s="3"/>
     </row>
-    <row r="572" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>99</v>
       </c>
@@ -17232,7 +17242,7 @@
       <c r="H572" s="3"/>
       <c r="I572" s="3"/>
     </row>
-    <row r="573" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>100</v>
       </c>
@@ -17256,7 +17266,7 @@
       <c r="H573" s="3"/>
       <c r="I573" s="3"/>
     </row>
-    <row r="574" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>101</v>
       </c>
@@ -17280,7 +17290,7 @@
       <c r="H574" s="3"/>
       <c r="I574" s="3"/>
     </row>
-    <row r="575" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <v>102</v>
       </c>
@@ -17304,7 +17314,7 @@
       <c r="H575" s="3"/>
       <c r="I575" s="3"/>
     </row>
-    <row r="576" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
         <v>103</v>
       </c>
@@ -17328,7 +17338,7 @@
       <c r="H576" s="3"/>
       <c r="I576" s="3"/>
     </row>
-    <row r="577" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
         <v>104</v>
       </c>
@@ -17352,7 +17362,7 @@
       <c r="H577" s="3"/>
       <c r="I577" s="3"/>
     </row>
-    <row r="578" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
         <v>105</v>
       </c>
@@ -17376,7 +17386,7 @@
       <c r="H578" s="3"/>
       <c r="I578" s="3"/>
     </row>
-    <row r="579" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
         <v>106</v>
       </c>
@@ -17400,7 +17410,7 @@
       <c r="H579" s="3"/>
       <c r="I579" s="3"/>
     </row>
-    <row r="580" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A580" s="4">
         <v>107</v>
       </c>
@@ -17424,7 +17434,7 @@
       <c r="H580" s="3"/>
       <c r="I580" s="3"/>
     </row>
-    <row r="581" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A581" s="4">
         <v>108</v>
       </c>
@@ -17448,7 +17458,7 @@
       <c r="H581" s="3"/>
       <c r="I581" s="3"/>
     </row>
-    <row r="582" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <v>109</v>
       </c>
@@ -17472,7 +17482,7 @@
       <c r="H582" s="3"/>
       <c r="I582" s="3"/>
     </row>
-    <row r="583" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
         <v>110</v>
       </c>
@@ -17496,7 +17506,7 @@
       <c r="H583" s="3"/>
       <c r="I583" s="3"/>
     </row>
-    <row r="584" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
         <v>111</v>
       </c>
@@ -17520,7 +17530,7 @@
       <c r="H584" s="3"/>
       <c r="I584" s="3"/>
     </row>
-    <row r="585" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A585" s="4">
         <v>112</v>
       </c>
@@ -17544,7 +17554,7 @@
       <c r="H585" s="3"/>
       <c r="I585" s="3"/>
     </row>
-    <row r="586" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
         <v>113</v>
       </c>
@@ -17568,7 +17578,7 @@
       <c r="H586" s="3"/>
       <c r="I586" s="3"/>
     </row>
-    <row r="587" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
         <v>114</v>
       </c>
@@ -17592,7 +17602,7 @@
       <c r="H587" s="3"/>
       <c r="I587" s="3"/>
     </row>
-    <row r="588" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
         <v>115</v>
       </c>
@@ -17616,7 +17626,7 @@
       <c r="H588" s="3"/>
       <c r="I588" s="3"/>
     </row>
-    <row r="589" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
         <v>116</v>
       </c>
@@ -17640,7 +17650,7 @@
       <c r="H589" s="3"/>
       <c r="I589" s="3"/>
     </row>
-    <row r="590" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>117</v>
       </c>
@@ -17664,7 +17674,7 @@
       <c r="H590" s="3"/>
       <c r="I590" s="3"/>
     </row>
-    <row r="591" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
         <v>118</v>
       </c>
@@ -17688,7 +17698,7 @@
       <c r="H591" s="3"/>
       <c r="I591" s="3"/>
     </row>
-    <row r="592" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A592" s="4">
         <v>119</v>
       </c>
@@ -17712,7 +17722,7 @@
       <c r="H592" s="3"/>
       <c r="I592" s="3"/>
     </row>
-    <row r="593" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
         <v>120</v>
       </c>
@@ -17736,7 +17746,7 @@
       <c r="H593" s="3"/>
       <c r="I593" s="3"/>
     </row>
-    <row r="594" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
         <v>121</v>
       </c>
@@ -17760,7 +17770,7 @@
       <c r="H594" s="3"/>
       <c r="I594" s="3"/>
     </row>
-    <row r="595" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>122</v>
       </c>
@@ -17784,7 +17794,7 @@
       <c r="H595" s="3"/>
       <c r="I595" s="3"/>
     </row>
-    <row r="596" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A596" s="4">
         <v>123</v>
       </c>
@@ -17808,7 +17818,7 @@
       <c r="H596" s="3"/>
       <c r="I596" s="3"/>
     </row>
-    <row r="597" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A597" s="4">
         <v>124</v>
       </c>
@@ -17832,7 +17842,7 @@
       <c r="H597" s="3"/>
       <c r="I597" s="3"/>
     </row>
-    <row r="598" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A598" s="4">
         <v>125</v>
       </c>
@@ -17856,7 +17866,7 @@
       <c r="H598" s="3"/>
       <c r="I598" s="3"/>
     </row>
-    <row r="599" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A599" s="4">
         <v>126</v>
       </c>
@@ -17880,7 +17890,7 @@
       <c r="H599" s="3"/>
       <c r="I599" s="3"/>
     </row>
-    <row r="600" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A600" s="4">
         <v>127</v>
       </c>
@@ -17904,7 +17914,7 @@
       <c r="H600" s="3"/>
       <c r="I600" s="3"/>
     </row>
-    <row r="601" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A601" s="4">
         <v>128</v>
       </c>
@@ -17928,7 +17938,7 @@
       <c r="H601" s="3"/>
       <c r="I601" s="3"/>
     </row>
-    <row r="602" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A602" s="4">
         <v>129</v>
       </c>
@@ -17952,7 +17962,7 @@
       <c r="H602" s="3"/>
       <c r="I602" s="3"/>
     </row>
-    <row r="603" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A603" s="4">
         <v>130</v>
       </c>
@@ -17976,7 +17986,7 @@
       <c r="H603" s="3"/>
       <c r="I603" s="3"/>
     </row>
-    <row r="604" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A604" s="4">
         <v>131</v>
       </c>
@@ -18000,7 +18010,7 @@
       <c r="H604" s="3"/>
       <c r="I604" s="3"/>
     </row>
-    <row r="605" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A605" s="4">
         <v>132</v>
       </c>
@@ -18024,7 +18034,7 @@
       <c r="H605" s="3"/>
       <c r="I605" s="3"/>
     </row>
-    <row r="606" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A606" s="4">
         <v>133</v>
       </c>
@@ -18048,7 +18058,7 @@
       <c r="H606" s="3"/>
       <c r="I606" s="3"/>
     </row>
-    <row r="607" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A607" s="4">
         <v>134</v>
       </c>
@@ -18072,7 +18082,7 @@
       <c r="H607" s="3"/>
       <c r="I607" s="3"/>
     </row>
-    <row r="608" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A608" s="4">
         <v>135</v>
       </c>
@@ -18096,7 +18106,7 @@
       <c r="H608" s="3"/>
       <c r="I608" s="3"/>
     </row>
-    <row r="609" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A609" s="4">
         <v>136</v>
       </c>
@@ -18120,7 +18130,7 @@
       <c r="H609" s="3"/>
       <c r="I609" s="3"/>
     </row>
-    <row r="610" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A610" s="4">
         <v>137</v>
       </c>
@@ -18144,7 +18154,7 @@
       <c r="H610" s="3"/>
       <c r="I610" s="3"/>
     </row>
-    <row r="611" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A611" s="4">
         <v>138</v>
       </c>
@@ -18168,7 +18178,7 @@
       <c r="H611" s="3"/>
       <c r="I611" s="3"/>
     </row>
-    <row r="612" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A612" s="4">
         <v>139</v>
       </c>
@@ -18192,7 +18202,7 @@
       <c r="H612" s="3"/>
       <c r="I612" s="3"/>
     </row>
-    <row r="613" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A613" s="4">
         <v>140</v>
       </c>
@@ -18216,7 +18226,7 @@
       <c r="H613" s="3"/>
       <c r="I613" s="3"/>
     </row>
-    <row r="614" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A614" s="4">
         <v>141</v>
       </c>
@@ -18240,7 +18250,7 @@
       <c r="H614" s="3"/>
       <c r="I614" s="3"/>
     </row>
-    <row r="615" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A615" s="4">
         <v>142</v>
       </c>
@@ -18264,7 +18274,7 @@
       <c r="H615" s="3"/>
       <c r="I615" s="3"/>
     </row>
-    <row r="616" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A616" s="4">
         <v>143</v>
       </c>
@@ -18288,7 +18298,7 @@
       <c r="H616" s="3"/>
       <c r="I616" s="3"/>
     </row>
-    <row r="617" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A617" s="4">
         <v>144</v>
       </c>
@@ -18312,7 +18322,7 @@
       <c r="H617" s="3"/>
       <c r="I617" s="3"/>
     </row>
-    <row r="618" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A618" s="4">
         <v>145</v>
       </c>
@@ -18336,7 +18346,7 @@
       <c r="H618" s="3"/>
       <c r="I618" s="3"/>
     </row>
-    <row r="619" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A619" s="4">
         <v>146</v>
       </c>
@@ -18360,7 +18370,7 @@
       <c r="H619" s="3"/>
       <c r="I619" s="3"/>
     </row>
-    <row r="620" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A620" s="4">
         <v>147</v>
       </c>
@@ -18384,7 +18394,7 @@
       <c r="H620" s="3"/>
       <c r="I620" s="3"/>
     </row>
-    <row r="621" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A621" s="4">
         <v>148</v>
       </c>
@@ -18408,7 +18418,7 @@
       <c r="H621" s="3"/>
       <c r="I621" s="3"/>
     </row>
-    <row r="622" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A622" s="4">
         <v>149</v>
       </c>
@@ -18432,7 +18442,7 @@
       <c r="H622" s="3"/>
       <c r="I622" s="3"/>
     </row>
-    <row r="623" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A623" s="4">
         <v>150</v>
       </c>
@@ -18456,7 +18466,7 @@
       <c r="H623" s="3"/>
       <c r="I623" s="3"/>
     </row>
-    <row r="624" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A624" s="4">
         <v>151</v>
       </c>
@@ -18480,7 +18490,7 @@
       <c r="H624" s="3"/>
       <c r="I624" s="3"/>
     </row>
-    <row r="625" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A625" s="4">
         <v>152</v>
       </c>
@@ -18504,7 +18514,7 @@
       <c r="H625" s="3"/>
       <c r="I625" s="3"/>
     </row>
-    <row r="626" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A626" s="4">
         <v>153</v>
       </c>
@@ -18528,7 +18538,7 @@
       <c r="H626" s="3"/>
       <c r="I626" s="3"/>
     </row>
-    <row r="627" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A627" s="4">
         <v>154</v>
       </c>
@@ -18552,7 +18562,7 @@
       <c r="H627" s="3"/>
       <c r="I627" s="3"/>
     </row>
-    <row r="628" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A628" s="4">
         <v>155</v>
       </c>
@@ -18576,7 +18586,7 @@
       <c r="H628" s="3"/>
       <c r="I628" s="3"/>
     </row>
-    <row r="629" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A629" s="4">
         <v>156</v>
       </c>
@@ -18600,7 +18610,7 @@
       <c r="H629" s="3"/>
       <c r="I629" s="3"/>
     </row>
-    <row r="630" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A630" s="4">
         <v>157</v>
       </c>
@@ -18624,7 +18634,7 @@
       <c r="H630" s="3"/>
       <c r="I630" s="3"/>
     </row>
-    <row r="631" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A631" s="4">
         <v>158</v>
       </c>
@@ -18648,7 +18658,7 @@
       <c r="H631" s="3"/>
       <c r="I631" s="3"/>
     </row>
-    <row r="632" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A632" s="4">
         <v>159</v>
       </c>
@@ -18672,7 +18682,7 @@
       <c r="H632" s="3"/>
       <c r="I632" s="3"/>
     </row>
-    <row r="633" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A633" s="4">
         <v>160</v>
       </c>
@@ -18696,7 +18706,7 @@
       <c r="H633" s="3"/>
       <c r="I633" s="3"/>
     </row>
-    <row r="634" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A634" s="4">
         <v>161</v>
       </c>
@@ -18722,7 +18732,7 @@
       <c r="H634" s="3"/>
       <c r="I634" s="3"/>
     </row>
-    <row r="635" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A635" s="4">
         <v>162</v>
       </c>
@@ -18746,7 +18756,7 @@
       <c r="H635" s="3"/>
       <c r="I635" s="3"/>
     </row>
-    <row r="636" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A636" s="4">
         <v>163</v>
       </c>
@@ -18770,7 +18780,7 @@
       <c r="H636" s="3"/>
       <c r="I636" s="3"/>
     </row>
-    <row r="637" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A637" s="4">
         <v>164</v>
       </c>
@@ -18796,7 +18806,7 @@
       <c r="H637" s="3"/>
       <c r="I637" s="3"/>
     </row>
-    <row r="638" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A638" s="4">
         <v>165</v>
       </c>
@@ -18820,7 +18830,7 @@
       <c r="H638" s="3"/>
       <c r="I638" s="3"/>
     </row>
-    <row r="639" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A639" s="4">
         <v>166</v>
       </c>
@@ -18844,7 +18854,7 @@
       <c r="H639" s="3"/>
       <c r="I639" s="3"/>
     </row>
-    <row r="640" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A640" s="4">
         <v>167</v>
       </c>
@@ -18868,7 +18878,7 @@
       <c r="H640" s="3"/>
       <c r="I640" s="3"/>
     </row>
-    <row r="641" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A641" s="4">
         <v>168</v>
       </c>
@@ -18892,7 +18902,7 @@
       <c r="H641" s="3"/>
       <c r="I641" s="3"/>
     </row>
-    <row r="642" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A642" s="4">
         <v>169</v>
       </c>
@@ -18916,7 +18926,7 @@
       <c r="H642" s="3"/>
       <c r="I642" s="3"/>
     </row>
-    <row r="643" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A643" s="4">
         <v>170</v>
       </c>
@@ -18940,7 +18950,7 @@
       <c r="H643" s="3"/>
       <c r="I643" s="3"/>
     </row>
-    <row r="644" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A644" s="4">
         <v>171</v>
       </c>
@@ -18964,7 +18974,7 @@
       <c r="H644" s="3"/>
       <c r="I644" s="3"/>
     </row>
-    <row r="645" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A645" s="4">
         <v>172</v>
       </c>
@@ -18988,7 +18998,7 @@
       <c r="H645" s="3"/>
       <c r="I645" s="3"/>
     </row>
-    <row r="646" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A646" s="4">
         <v>173</v>
       </c>
@@ -19012,7 +19022,7 @@
       <c r="H646" s="3"/>
       <c r="I646" s="3"/>
     </row>
-    <row r="647" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A647" s="4">
         <v>1</v>
       </c>
@@ -19038,7 +19048,7 @@
       <c r="H647" s="3"/>
       <c r="I647" s="3"/>
     </row>
-    <row r="648" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A648" s="4">
         <v>2</v>
       </c>
@@ -19064,7 +19074,7 @@
       <c r="H648" s="3"/>
       <c r="I648" s="3"/>
     </row>
-    <row r="649" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A649" s="4">
         <v>1</v>
       </c>
@@ -19088,7 +19098,7 @@
       <c r="H649" s="3"/>
       <c r="I649" s="3"/>
     </row>
-    <row r="650" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A650" s="4">
         <v>2</v>
       </c>
@@ -19112,7 +19122,7 @@
       <c r="H650" s="3"/>
       <c r="I650" s="3"/>
     </row>
-    <row r="651" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A651" s="4">
         <v>1</v>
       </c>
@@ -19136,7 +19146,7 @@
       <c r="H651" s="3"/>
       <c r="I651" s="3"/>
     </row>
-    <row r="652" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A652" s="4">
         <v>2</v>
       </c>
@@ -19160,7 +19170,7 @@
       <c r="H652" s="3"/>
       <c r="I652" s="3"/>
     </row>
-    <row r="653" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A653" s="4">
         <v>3</v>
       </c>
@@ -19184,7 +19194,7 @@
       <c r="H653" s="3"/>
       <c r="I653" s="3"/>
     </row>
-    <row r="654" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A654" s="4">
         <v>4</v>
       </c>
@@ -19208,7 +19218,7 @@
       <c r="H654" s="3"/>
       <c r="I654" s="3"/>
     </row>
-    <row r="655" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A655" s="4">
         <v>5</v>
       </c>
@@ -19232,7 +19242,7 @@
       <c r="H655" s="3"/>
       <c r="I655" s="3"/>
     </row>
-    <row r="656" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A656" s="4">
         <v>6</v>
       </c>
@@ -19256,7 +19266,7 @@
       <c r="H656" s="3"/>
       <c r="I656" s="3"/>
     </row>
-    <row r="657" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A657" s="4">
         <v>7</v>
       </c>
@@ -19280,7 +19290,7 @@
       <c r="H657" s="3"/>
       <c r="I657" s="3"/>
     </row>
-    <row r="658" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A658" s="4">
         <v>8</v>
       </c>
@@ -19304,7 +19314,7 @@
       <c r="H658" s="3"/>
       <c r="I658" s="3"/>
     </row>
-    <row r="659" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A659" s="4">
         <v>9</v>
       </c>
@@ -19328,7 +19338,7 @@
       <c r="H659" s="3"/>
       <c r="I659" s="3"/>
     </row>
-    <row r="660" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A660" s="4">
         <v>10</v>
       </c>
@@ -19352,7 +19362,7 @@
       <c r="H660" s="3"/>
       <c r="I660" s="3"/>
     </row>
-    <row r="661" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A661" s="4">
         <v>11</v>
       </c>
@@ -19376,7 +19386,7 @@
       <c r="H661" s="3"/>
       <c r="I661" s="3"/>
     </row>
-    <row r="662" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A662" s="4">
         <v>12</v>
       </c>
@@ -19400,7 +19410,7 @@
       <c r="H662" s="3"/>
       <c r="I662" s="3"/>
     </row>
-    <row r="663" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A663" s="4">
         <v>13</v>
       </c>
@@ -19424,7 +19434,7 @@
       <c r="H663" s="3"/>
       <c r="I663" s="3"/>
     </row>
-    <row r="664" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A664" s="4">
         <v>1</v>
       </c>
@@ -19448,7 +19458,7 @@
       <c r="H664" s="3"/>
       <c r="I664" s="3"/>
     </row>
-    <row r="665" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A665" s="4">
         <v>2</v>
       </c>
@@ -19472,7 +19482,7 @@
       <c r="H665" s="3"/>
       <c r="I665" s="3"/>
     </row>
-    <row r="666" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A666" s="4">
         <v>3</v>
       </c>
@@ -19496,7 +19506,7 @@
       <c r="H666" s="3"/>
       <c r="I666" s="3"/>
     </row>
-    <row r="667" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A667" s="4">
         <v>4</v>
       </c>
@@ -19520,7 +19530,7 @@
       <c r="H667" s="3"/>
       <c r="I667" s="3"/>
     </row>
-    <row r="668" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A668" s="4">
         <v>5</v>
       </c>
@@ -19544,7 +19554,7 @@
       <c r="H668" s="3"/>
       <c r="I668" s="3"/>
     </row>
-    <row r="669" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A669" s="4">
         <v>6</v>
       </c>
@@ -19568,7 +19578,7 @@
       <c r="H669" s="3"/>
       <c r="I669" s="3"/>
     </row>
-    <row r="670" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A670" s="4">
         <v>7</v>
       </c>
@@ -19592,7 +19602,7 @@
       <c r="H670" s="3"/>
       <c r="I670" s="3"/>
     </row>
-    <row r="671" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A671" s="4">
         <v>8</v>
       </c>
@@ -19616,7 +19626,7 @@
       <c r="H671" s="3"/>
       <c r="I671" s="3"/>
     </row>
-    <row r="672" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A672" s="4">
         <v>9</v>
       </c>
@@ -19640,7 +19650,7 @@
       <c r="H672" s="3"/>
       <c r="I672" s="3"/>
     </row>
-    <row r="673" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A673" s="4">
         <v>10</v>
       </c>
@@ -19664,7 +19674,7 @@
       <c r="H673" s="3"/>
       <c r="I673" s="3"/>
     </row>
-    <row r="674" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A674" s="4">
         <v>11</v>
       </c>
@@ -19688,7 +19698,7 @@
       <c r="H674" s="3"/>
       <c r="I674" s="3"/>
     </row>
-    <row r="675" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A675" s="4">
         <v>12</v>
       </c>
@@ -19712,7 +19722,7 @@
       <c r="H675" s="3"/>
       <c r="I675" s="3"/>
     </row>
-    <row r="676" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A676" s="4">
         <v>13</v>
       </c>
@@ -19736,7 +19746,7 @@
       <c r="H676" s="3"/>
       <c r="I676" s="3"/>
     </row>
-    <row r="677" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A677" s="4">
         <v>14</v>
       </c>
@@ -19760,7 +19770,7 @@
       <c r="H677" s="3"/>
       <c r="I677" s="3"/>
     </row>
-    <row r="678" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A678" s="4">
         <v>15</v>
       </c>
@@ -19784,7 +19794,7 @@
       <c r="H678" s="3"/>
       <c r="I678" s="3"/>
     </row>
-    <row r="679" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A679" s="4">
         <v>16</v>
       </c>
@@ -19808,7 +19818,7 @@
       <c r="H679" s="3"/>
       <c r="I679" s="3"/>
     </row>
-    <row r="680" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A680" s="4">
         <v>17</v>
       </c>
@@ -19832,7 +19842,7 @@
       <c r="H680" s="3"/>
       <c r="I680" s="3"/>
     </row>
-    <row r="681" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A681" s="4">
         <v>18</v>
       </c>
@@ -19856,7 +19866,7 @@
       <c r="H681" s="3"/>
       <c r="I681" s="3"/>
     </row>
-    <row r="682" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A682" s="4">
         <v>19</v>
       </c>
@@ -19880,7 +19890,7 @@
       <c r="H682" s="3"/>
       <c r="I682" s="3"/>
     </row>
-    <row r="683" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A683" s="4">
         <v>20</v>
       </c>
@@ -19906,7 +19916,7 @@
       <c r="H683" s="3"/>
       <c r="I683" s="3"/>
     </row>
-    <row r="684" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A684" s="4">
         <v>21</v>
       </c>
@@ -19932,7 +19942,7 @@
       <c r="H684" s="3"/>
       <c r="I684" s="3"/>
     </row>
-    <row r="685" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A685" s="4">
         <v>22</v>
       </c>
@@ -19956,7 +19966,7 @@
       <c r="H685" s="3"/>
       <c r="I685" s="3"/>
     </row>
-    <row r="686" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A686" s="4">
         <v>23</v>
       </c>
@@ -19980,7 +19990,7 @@
       <c r="H686" s="3"/>
       <c r="I686" s="3"/>
     </row>
-    <row r="687" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A687" s="4">
         <v>24</v>
       </c>
@@ -20004,7 +20014,7 @@
       <c r="H687" s="3"/>
       <c r="I687" s="3"/>
     </row>
-    <row r="688" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A688" s="4">
         <v>25</v>
       </c>
@@ -20028,7 +20038,7 @@
       <c r="H688" s="3"/>
       <c r="I688" s="3"/>
     </row>
-    <row r="689" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A689" s="4">
         <v>26</v>
       </c>
@@ -20052,7 +20062,7 @@
       <c r="H689" s="3"/>
       <c r="I689" s="3"/>
     </row>
-    <row r="690" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A690" s="4">
         <v>27</v>
       </c>
@@ -20076,7 +20086,7 @@
       <c r="H690" s="3"/>
       <c r="I690" s="3"/>
     </row>
-    <row r="691" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A691" s="4">
         <v>28</v>
       </c>
@@ -20100,7 +20110,7 @@
       <c r="H691" s="3"/>
       <c r="I691" s="3"/>
     </row>
-    <row r="692" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A692" s="4">
         <v>29</v>
       </c>
@@ -20124,7 +20134,7 @@
       <c r="H692" s="3"/>
       <c r="I692" s="3"/>
     </row>
-    <row r="693" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A693" s="4">
         <v>1</v>
       </c>
@@ -20148,7 +20158,7 @@
       <c r="H693" s="3"/>
       <c r="I693" s="3"/>
     </row>
-    <row r="694" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A694" s="4">
         <v>2</v>
       </c>
@@ -20172,7 +20182,7 @@
       <c r="H694" s="3"/>
       <c r="I694" s="3"/>
     </row>
-    <row r="695" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A695" s="4">
         <v>1</v>
       </c>
@@ -20196,7 +20206,7 @@
       <c r="H695" s="3"/>
       <c r="I695" s="3"/>
     </row>
-    <row r="696" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A696" s="4">
         <v>2</v>
       </c>
@@ -20220,7 +20230,7 @@
       <c r="H696" s="3"/>
       <c r="I696" s="3"/>
     </row>
-    <row r="697" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A697" s="4">
         <v>3</v>
       </c>
@@ -20244,7 +20254,7 @@
       <c r="H697" s="3"/>
       <c r="I697" s="3"/>
     </row>
-    <row r="698" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A698" s="4">
         <v>4</v>
       </c>
@@ -20268,7 +20278,7 @@
       <c r="H698" s="3"/>
       <c r="I698" s="3"/>
     </row>
-    <row r="699" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A699" s="4">
         <v>5</v>
       </c>
@@ -20292,7 +20302,7 @@
       <c r="H699" s="3"/>
       <c r="I699" s="3"/>
     </row>
-    <row r="700" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A700" s="4">
         <v>6</v>
       </c>
@@ -20316,7 +20326,7 @@
       <c r="H700" s="3"/>
       <c r="I700" s="3"/>
     </row>
-    <row r="701" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A701" s="4">
         <v>7</v>
       </c>
@@ -20340,7 +20350,7 @@
       <c r="H701" s="3"/>
       <c r="I701" s="3"/>
     </row>
-    <row r="702" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A702" s="4">
         <v>8</v>
       </c>
@@ -20364,7 +20374,7 @@
       <c r="H702" s="3"/>
       <c r="I702" s="3"/>
     </row>
-    <row r="703" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A703" s="4">
         <v>9</v>
       </c>
@@ -20388,7 +20398,7 @@
       <c r="H703" s="3"/>
       <c r="I703" s="3"/>
     </row>
-    <row r="704" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A704" s="4">
         <v>10</v>
       </c>
@@ -20412,7 +20422,7 @@
       <c r="H704" s="3"/>
       <c r="I704" s="3"/>
     </row>
-    <row r="705" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A705" s="4">
         <v>11</v>
       </c>
@@ -20436,7 +20446,7 @@
       <c r="H705" s="3"/>
       <c r="I705" s="3"/>
     </row>
-    <row r="706" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A706" s="4">
         <v>12</v>
       </c>
@@ -20460,7 +20470,7 @@
       <c r="H706" s="3"/>
       <c r="I706" s="3"/>
     </row>
-    <row r="707" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A707" s="4">
         <v>13</v>
       </c>
@@ -20484,7 +20494,7 @@
       <c r="H707" s="3"/>
       <c r="I707" s="3"/>
     </row>
-    <row r="708" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A708" s="4">
         <v>14</v>
       </c>
@@ -20508,7 +20518,7 @@
       <c r="H708" s="3"/>
       <c r="I708" s="3"/>
     </row>
-    <row r="709" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A709" s="4">
         <v>15</v>
       </c>
@@ -20532,7 +20542,7 @@
       <c r="H709" s="3"/>
       <c r="I709" s="3"/>
     </row>
-    <row r="710" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A710" s="4">
         <v>16</v>
       </c>
@@ -20556,7 +20566,7 @@
       <c r="H710" s="3"/>
       <c r="I710" s="3"/>
     </row>
-    <row r="711" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A711" s="4">
         <v>17</v>
       </c>
@@ -20580,7 +20590,7 @@
       <c r="H711" s="3"/>
       <c r="I711" s="3"/>
     </row>
-    <row r="712" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A712" s="4">
         <v>18</v>
       </c>
@@ -20604,7 +20614,7 @@
       <c r="H712" s="3"/>
       <c r="I712" s="3"/>
     </row>
-    <row r="713" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A713" s="4">
         <v>19</v>
       </c>
@@ -20628,7 +20638,7 @@
       <c r="H713" s="3"/>
       <c r="I713" s="3"/>
     </row>
-    <row r="714" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A714" s="4">
         <v>20</v>
       </c>
@@ -20652,7 +20662,7 @@
       <c r="H714" s="3"/>
       <c r="I714" s="3"/>
     </row>
-    <row r="715" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A715" s="4">
         <v>21</v>
       </c>
@@ -20676,7 +20686,7 @@
       <c r="H715" s="3"/>
       <c r="I715" s="3"/>
     </row>
-    <row r="716" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A716" s="4">
         <v>22</v>
       </c>
@@ -20700,7 +20710,7 @@
       <c r="H716" s="3"/>
       <c r="I716" s="3"/>
     </row>
-    <row r="717" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A717" s="4">
         <v>23</v>
       </c>
@@ -20724,7 +20734,7 @@
       <c r="H717" s="3"/>
       <c r="I717" s="3"/>
     </row>
-    <row r="718" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A718" s="4">
         <v>24</v>
       </c>
@@ -20748,7 +20758,7 @@
       <c r="H718" s="3"/>
       <c r="I718" s="3"/>
     </row>
-    <row r="719" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A719" s="4">
         <v>25</v>
       </c>
@@ -20772,7 +20782,7 @@
       <c r="H719" s="3"/>
       <c r="I719" s="3"/>
     </row>
-    <row r="720" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A720" s="4">
         <v>26</v>
       </c>
@@ -20796,7 +20806,7 @@
       <c r="H720" s="3"/>
       <c r="I720" s="3"/>
     </row>
-    <row r="721" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A721" s="4">
         <v>27</v>
       </c>
@@ -20820,7 +20830,7 @@
       <c r="H721" s="3"/>
       <c r="I721" s="3"/>
     </row>
-    <row r="722" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A722" s="4">
         <v>28</v>
       </c>
@@ -20844,7 +20854,7 @@
       <c r="H722" s="3"/>
       <c r="I722" s="3"/>
     </row>
-    <row r="723" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A723" s="4">
         <v>29</v>
       </c>
@@ -20868,7 +20878,7 @@
       <c r="H723" s="3"/>
       <c r="I723" s="3"/>
     </row>
-    <row r="724" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A724" s="4">
         <v>30</v>
       </c>
@@ -20892,7 +20902,7 @@
       <c r="H724" s="3"/>
       <c r="I724" s="3"/>
     </row>
-    <row r="725" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A725" s="4">
         <v>31</v>
       </c>
@@ -20916,7 +20926,7 @@
       <c r="H725" s="3"/>
       <c r="I725" s="3"/>
     </row>
-    <row r="726" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A726" s="4">
         <v>32</v>
       </c>
@@ -20940,7 +20950,7 @@
       <c r="H726" s="3"/>
       <c r="I726" s="3"/>
     </row>
-    <row r="727" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A727" s="4">
         <v>33</v>
       </c>
@@ -20964,7 +20974,7 @@
       <c r="H727" s="3"/>
       <c r="I727" s="3"/>
     </row>
-    <row r="728" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A728" s="4">
         <v>1</v>
       </c>
@@ -20988,7 +20998,7 @@
       <c r="H728" s="3"/>
       <c r="I728" s="3"/>
     </row>
-    <row r="729" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A729" s="4">
         <v>2</v>
       </c>
@@ -21012,7 +21022,7 @@
       <c r="H729" s="3"/>
       <c r="I729" s="3"/>
     </row>
-    <row r="730" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A730" s="4">
         <v>1</v>
       </c>
@@ -21036,7 +21046,7 @@
       <c r="H730" s="3"/>
       <c r="I730" s="3"/>
     </row>
-    <row r="731" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A731" s="4">
         <v>1</v>
       </c>
@@ -21060,7 +21070,7 @@
       <c r="H731" s="3"/>
       <c r="I731" s="3"/>
     </row>
-    <row r="732" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A732" s="4">
         <v>2</v>
       </c>
@@ -21084,7 +21094,7 @@
       <c r="H732" s="3"/>
       <c r="I732" s="3"/>
     </row>
-    <row r="733" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A733" s="4">
         <v>3</v>
       </c>
@@ -21108,7 +21118,7 @@
       <c r="H733" s="3"/>
       <c r="I733" s="3"/>
     </row>
-    <row r="734" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A734" s="4">
         <v>4</v>
       </c>
@@ -21132,7 +21142,7 @@
       <c r="H734" s="3"/>
       <c r="I734" s="3"/>
     </row>
-    <row r="735" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A735" s="4">
         <v>1</v>
       </c>
@@ -21156,7 +21166,7 @@
       <c r="H735" s="3"/>
       <c r="I735" s="3"/>
     </row>
-    <row r="736" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A736" s="4">
         <v>2</v>
       </c>
@@ -21180,7 +21190,7 @@
       <c r="H736" s="3"/>
       <c r="I736" s="3"/>
     </row>
-    <row r="737" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A737" s="4">
         <v>3</v>
       </c>
@@ -21204,7 +21214,7 @@
       <c r="H737" s="3"/>
       <c r="I737" s="3"/>
     </row>
-    <row r="738" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A738" s="4">
         <v>1</v>
       </c>
@@ -21228,7 +21238,7 @@
       <c r="H738" s="3"/>
       <c r="I738" s="3"/>
     </row>
-    <row r="739" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A739" s="4">
         <v>1</v>
       </c>
@@ -21252,7 +21262,7 @@
       <c r="H739" s="3"/>
       <c r="I739" s="3"/>
     </row>
-    <row r="740" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A740" s="4">
         <v>1</v>
       </c>
@@ -21276,7 +21286,7 @@
       <c r="H740" s="3"/>
       <c r="I740" s="3"/>
     </row>
-    <row r="741" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A741" s="4">
         <v>2</v>
       </c>
@@ -21300,7 +21310,7 @@
       <c r="H741" s="3"/>
       <c r="I741" s="3"/>
     </row>
-    <row r="742" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A742" s="4">
         <v>3</v>
       </c>
@@ -21324,7 +21334,7 @@
       <c r="H742" s="3"/>
       <c r="I742" s="3"/>
     </row>
-    <row r="743" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A743" s="4">
         <v>4</v>
       </c>
@@ -21348,7 +21358,7 @@
       <c r="H743" s="3"/>
       <c r="I743" s="3"/>
     </row>
-    <row r="744" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A744" s="4">
         <v>5</v>
       </c>
@@ -21372,7 +21382,7 @@
       <c r="H744" s="3"/>
       <c r="I744" s="3"/>
     </row>
-    <row r="745" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A745" s="4">
         <v>6</v>
       </c>
@@ -21396,7 +21406,7 @@
       <c r="H745" s="3"/>
       <c r="I745" s="3"/>
     </row>
-    <row r="746" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A746" s="4">
         <v>7</v>
       </c>
@@ -21420,7 +21430,7 @@
       <c r="H746" s="3"/>
       <c r="I746" s="3"/>
     </row>
-    <row r="747" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A747" s="4">
         <v>8</v>
       </c>
@@ -21444,7 +21454,7 @@
       <c r="H747" s="3"/>
       <c r="I747" s="3"/>
     </row>
-    <row r="748" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A748" s="4">
         <v>9</v>
       </c>
@@ -21468,7 +21478,7 @@
       <c r="H748" s="3"/>
       <c r="I748" s="3"/>
     </row>
-    <row r="749" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A749" s="4">
         <v>10</v>
       </c>
@@ -21492,7 +21502,7 @@
       <c r="H749" s="3"/>
       <c r="I749" s="3"/>
     </row>
-    <row r="750" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A750" s="4">
         <v>11</v>
       </c>
@@ -21516,7 +21526,7 @@
       <c r="H750" s="3"/>
       <c r="I750" s="3"/>
     </row>
-    <row r="751" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A751" s="4">
         <v>1</v>
       </c>
@@ -21542,7 +21552,7 @@
       <c r="H751" s="3"/>
       <c r="I751" s="3"/>
     </row>
-    <row r="752" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A752" s="4">
         <v>2</v>
       </c>
@@ -21568,7 +21578,7 @@
       <c r="H752" s="3"/>
       <c r="I752" s="3"/>
     </row>
-    <row r="753" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A753" s="4">
         <v>3</v>
       </c>
@@ -21594,7 +21604,7 @@
       <c r="H753" s="3"/>
       <c r="I753" s="3"/>
     </row>
-    <row r="754" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A754" s="4">
         <v>4</v>
       </c>
@@ -21618,7 +21628,7 @@
       <c r="H754" s="3"/>
       <c r="I754" s="3"/>
     </row>
-    <row r="755" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A755" s="4">
         <v>5</v>
       </c>
@@ -21644,7 +21654,7 @@
       <c r="H755" s="3"/>
       <c r="I755" s="3"/>
     </row>
-    <row r="756" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A756" s="4">
         <v>6</v>
       </c>
@@ -21670,7 +21680,7 @@
       <c r="H756" s="3"/>
       <c r="I756" s="3"/>
     </row>
-    <row r="757" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A757" s="4">
         <v>7</v>
       </c>
@@ -21694,7 +21704,7 @@
       <c r="H757" s="3"/>
       <c r="I757" s="3"/>
     </row>
-    <row r="758" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A758" s="4">
         <v>8</v>
       </c>
@@ -21718,7 +21728,7 @@
       <c r="H758" s="3"/>
       <c r="I758" s="3"/>
     </row>
-    <row r="759" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A759" s="4">
         <v>9</v>
       </c>
@@ -21742,7 +21752,7 @@
       <c r="H759" s="3"/>
       <c r="I759" s="3"/>
     </row>
-    <row r="760" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A760" s="4">
         <v>10</v>
       </c>
@@ -21766,7 +21776,7 @@
       <c r="H760" s="3"/>
       <c r="I760" s="3"/>
     </row>
-    <row r="761" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A761" s="4">
         <v>11</v>
       </c>
@@ -21790,7 +21800,7 @@
       <c r="H761" s="3"/>
       <c r="I761" s="3"/>
     </row>
-    <row r="762" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A762" s="4">
         <v>12</v>
       </c>
@@ -21814,7 +21824,7 @@
       <c r="H762" s="3"/>
       <c r="I762" s="3"/>
     </row>
-    <row r="763" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A763" s="4">
         <v>13</v>
       </c>
@@ -21838,7 +21848,7 @@
       <c r="H763" s="3"/>
       <c r="I763" s="3"/>
     </row>
-    <row r="764" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A764" s="4">
         <v>14</v>
       </c>
@@ -21862,7 +21872,7 @@
       <c r="H764" s="3"/>
       <c r="I764" s="3"/>
     </row>
-    <row r="765" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A765" s="4">
         <v>15</v>
       </c>
@@ -21886,7 +21896,7 @@
       <c r="H765" s="3"/>
       <c r="I765" s="3"/>
     </row>
-    <row r="766" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A766" s="4">
         <v>16</v>
       </c>
@@ -21910,7 +21920,7 @@
       <c r="H766" s="3"/>
       <c r="I766" s="3"/>
     </row>
-    <row r="767" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A767" s="4">
         <v>17</v>
       </c>
@@ -21934,7 +21944,7 @@
       <c r="H767" s="3"/>
       <c r="I767" s="3"/>
     </row>
-    <row r="768" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A768" s="4">
         <v>18</v>
       </c>
@@ -21960,7 +21970,7 @@
       <c r="H768" s="3"/>
       <c r="I768" s="3"/>
     </row>
-    <row r="769" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A769" s="4">
         <v>19</v>
       </c>
@@ -21984,7 +21994,7 @@
       <c r="H769" s="3"/>
       <c r="I769" s="3"/>
     </row>
-    <row r="770" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A770" s="4">
         <v>20</v>
       </c>
@@ -22010,7 +22020,7 @@
       <c r="H770" s="3"/>
       <c r="I770" s="3"/>
     </row>
-    <row r="771" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A771" s="4">
         <v>21</v>
       </c>
@@ -22036,7 +22046,7 @@
       <c r="H771" s="3"/>
       <c r="I771" s="3"/>
     </row>
-    <row r="772" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A772" s="4">
         <v>22</v>
       </c>
@@ -22062,7 +22072,7 @@
       <c r="H772" s="3"/>
       <c r="I772" s="3"/>
     </row>
-    <row r="773" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A773" s="4">
         <v>23</v>
       </c>
@@ -22088,7 +22098,7 @@
       <c r="H773" s="3"/>
       <c r="I773" s="3"/>
     </row>
-    <row r="774" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A774" s="4">
         <v>24</v>
       </c>
@@ -22114,7 +22124,7 @@
       <c r="H774" s="3"/>
       <c r="I774" s="3"/>
     </row>
-    <row r="775" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A775" s="4">
         <v>25</v>
       </c>
@@ -22140,7 +22150,7 @@
       <c r="H775" s="3"/>
       <c r="I775" s="3"/>
     </row>
-    <row r="776" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A776" s="4">
         <v>26</v>
       </c>
@@ -22166,7 +22176,7 @@
       <c r="H776" s="3"/>
       <c r="I776" s="3"/>
     </row>
-    <row r="777" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A777" s="4">
         <v>27</v>
       </c>
@@ -22192,7 +22202,7 @@
       <c r="H777" s="3"/>
       <c r="I777" s="3"/>
     </row>
-    <row r="778" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A778" s="4">
         <v>28</v>
       </c>
@@ -22218,7 +22228,7 @@
       <c r="H778" s="3"/>
       <c r="I778" s="3"/>
     </row>
-    <row r="779" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A779" s="4">
         <v>29</v>
       </c>
@@ -22244,7 +22254,7 @@
       <c r="H779" s="3"/>
       <c r="I779" s="3"/>
     </row>
-    <row r="780" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A780" s="4">
         <v>30</v>
       </c>
@@ -22268,7 +22278,7 @@
       <c r="H780" s="3"/>
       <c r="I780" s="3"/>
     </row>
-    <row r="781" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A781" s="4">
         <v>31</v>
       </c>
@@ -22292,7 +22302,7 @@
       <c r="H781" s="3"/>
       <c r="I781" s="3"/>
     </row>
-    <row r="782" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A782" s="4">
         <v>32</v>
       </c>
@@ -22316,7 +22326,7 @@
       <c r="H782" s="3"/>
       <c r="I782" s="3"/>
     </row>
-    <row r="783" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A783" s="4">
         <v>33</v>
       </c>
@@ -22340,7 +22350,7 @@
       <c r="H783" s="3"/>
       <c r="I783" s="3"/>
     </row>
-    <row r="784" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A784" s="4">
         <v>34</v>
       </c>
@@ -22366,7 +22376,7 @@
       <c r="H784" s="3"/>
       <c r="I784" s="3"/>
     </row>
-    <row r="785" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A785" s="4">
         <v>35</v>
       </c>
@@ -22392,7 +22402,7 @@
       <c r="H785" s="3"/>
       <c r="I785" s="3"/>
     </row>
-    <row r="786" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A786" s="4">
         <v>36</v>
       </c>
@@ -22418,7 +22428,7 @@
       <c r="H786" s="3"/>
       <c r="I786" s="3"/>
     </row>
-    <row r="787" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A787" s="4">
         <v>37</v>
       </c>
@@ -22444,7 +22454,7 @@
       <c r="H787" s="3"/>
       <c r="I787" s="3"/>
     </row>
-    <row r="788" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A788" s="4">
         <v>38</v>
       </c>
@@ -22470,7 +22480,7 @@
       <c r="H788" s="3"/>
       <c r="I788" s="3"/>
     </row>
-    <row r="789" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A789" s="4">
         <v>39</v>
       </c>
